--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="942">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,709 +52,709 @@
     <t>forced</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>crypt</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>manufacturers</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>atm</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>wage</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>crypt</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>manufacturers</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3205,10 +3205,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.04116499774456842</v>
+        <v>0.04204244312022846</v>
       </c>
       <c r="C3">
         <v>202</v>
@@ -3287,7 +3287,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K3">
         <v>0.008351661494070569</v>
@@ -3316,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02027451393933444</v>
+        <v>0.02070667182769899</v>
       </c>
       <c r="C4">
         <v>49</v>
@@ -3337,7 +3337,7 @@
         <v>466</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="K4">
         <v>0.007969770929800207</v>
@@ -3346,19 +3346,19 @@
         <v>214</v>
       </c>
       <c r="M4">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N4">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3366,7 +3366,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01476859174361075</v>
+        <v>0.0150833891015713</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -3387,7 +3387,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.007450059744457909</v>
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01389045043858618</v>
+        <v>0.0141865299277386</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3437,7 +3437,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="K6">
         <v>0.007165755798980582</v>
@@ -3446,19 +3446,19 @@
         <v>173</v>
       </c>
       <c r="M6">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3466,28 +3466,28 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01083718354919456</v>
+        <v>0.01066556671699633</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0.006139610394931931</v>
@@ -3516,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01044297137048282</v>
+        <v>0.01066556671699633</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.005867700614031839</v>
@@ -3566,13 +3566,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01044297137048282</v>
+        <v>0.01024714504606564</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9">
         <v>0.005867700614031839</v>
@@ -3616,13 +3616,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01003328235476876</v>
+        <v>0.008874287926156708</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K10">
         <v>0.005816897055082583</v>
@@ -3666,28 +3666,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01003328235476876</v>
+        <v>0.008874287926156708</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>0.005661751841081065</v>
@@ -3716,28 +3716,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008689077402571903</v>
+        <v>0.008874287926156708</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K12">
         <v>0.005661751841081065</v>
@@ -3766,13 +3766,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008689077402571903</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>0.005365680628246356</v>
@@ -3816,28 +3816,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008689077402571903</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>0.004842308982913773</v>
@@ -3866,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>0.004842308982913773</v>
@@ -3916,7 +3916,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00819214073815118</v>
+        <v>0.008366758894383085</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -3934,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>0.004492555061472349</v>
@@ -3966,13 +3966,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00819214073815118</v>
+        <v>0.00782638630513126</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>0.004324234396301595</v>
@@ -4016,28 +4016,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00819214073815118</v>
+        <v>0.00782638630513126</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K18">
         <v>0.004076927286753298</v>
@@ -4066,25 +4066,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007663045976598773</v>
+        <v>0.00782638630513126</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>247</v>
@@ -4116,28 +4116,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007663045976598773</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K20">
         <v>0.003928625434997743</v>
@@ -4166,28 +4166,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007663045976598773</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K21">
         <v>0.003774501227387376</v>
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4234,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22">
         <v>0.003774501227387376</v>
@@ -4266,7 +4266,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>0.00373497656516185</v>
@@ -4316,7 +4316,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4334,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K24">
         <v>0.003695029143195979</v>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>248</v>
@@ -4416,7 +4416,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007094601990616324</v>
+        <v>0.007245825749875153</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K26">
         <v>0.003572507753573925</v>
@@ -4466,13 +4466,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007094601990616324</v>
+        <v>0.006614503684930679</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4484,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K27">
         <v>0.003530722599710321</v>
@@ -4516,13 +4516,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007094601990616324</v>
+        <v>0.006614503684930679</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4534,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K28">
         <v>0.003530722599710321</v>
@@ -4566,13 +4566,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006476455911302693</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>249</v>
@@ -4616,13 +4616,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006476455911302693</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K30">
         <v>0.003402289428661737</v>
@@ -4666,7 +4666,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4684,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K31">
         <v>0.003402289428661737</v>
@@ -4716,7 +4716,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>250</v>
@@ -4766,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>251</v>
@@ -4816,28 +4816,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34">
         <v>0.003081867346869298</v>
@@ -4866,25 +4866,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>252</v>
@@ -4916,28 +4916,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="F36">
-        <v>0.07999999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0.003081867346869298</v>
@@ -4966,28 +4966,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005792718268381268</v>
+        <v>0.005916191950771139</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F37">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K37">
         <v>0.003033330969488593</v>
@@ -5016,28 +5016,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005792718268381268</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>0.003033330969488593</v>
@@ -5066,28 +5066,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005792718268381268</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K39">
         <v>0.002984005227411307</v>
@@ -5116,7 +5116,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>253</v>
@@ -5166,7 +5166,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5184,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K41">
         <v>0.00293385030701592</v>
@@ -5216,7 +5216,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5234,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K42">
         <v>0.002882822930867729</v>
@@ -5266,7 +5266,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>254</v>
@@ -5316,7 +5316,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>255</v>
@@ -5366,28 +5366,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2061</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K45">
         <v>0.002724011624610843</v>
@@ -5416,28 +5416,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K46">
         <v>0.002724011624610843</v>
@@ -5466,28 +5466,28 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F47">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2061</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K47">
         <v>0.00266897541348256</v>
@@ -5516,25 +5516,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="F48">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>256</v>
@@ -5566,25 +5566,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F49">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>257</v>
@@ -5616,28 +5616,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E50">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="F50">
-        <v>0.27</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K50">
         <v>0.002612780163835795</v>
@@ -5666,25 +5666,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005016641177384382</v>
+        <v>0.005123572523032822</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F51">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>258</v>
@@ -5716,28 +5716,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005016641177384382</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>0.002555349410803385</v>
@@ -5766,28 +5766,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005016641177384382</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K53">
         <v>0.002555349410803385</v>
@@ -5816,7 +5816,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5834,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>0.002555349410803385</v>
@@ -5866,7 +5866,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K55">
         <v>0.002496597892743764</v>
@@ -5916,7 +5916,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>259</v>
@@ -5966,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K57">
         <v>0.002436430065651794</v>
@@ -6016,7 +6016,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>260</v>
@@ -6066,7 +6066,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>261</v>
@@ -6116,28 +6116,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K60">
         <v>0.002374738278541744</v>
@@ -6166,25 +6166,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>262</v>
@@ -6216,25 +6216,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>263</v>
@@ -6266,25 +6266,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>264</v>
@@ -6316,25 +6316,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>265</v>
@@ -6366,25 +6366,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>266</v>
@@ -6416,25 +6416,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="F66">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>267</v>
@@ -6466,28 +6466,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E67">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F67">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K67">
         <v>0.002246277530736174</v>
@@ -6516,28 +6516,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E68">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F68">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K68">
         <v>0.002246277530736174</v>
@@ -6566,25 +6566,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F69">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>3157</v>
+        <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>268</v>
@@ -6616,25 +6616,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F70">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>269</v>
@@ -6666,25 +6666,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>270</v>
@@ -6716,28 +6716,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F72">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K72">
         <v>0.002246277530736174</v>
@@ -6766,28 +6766,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F73">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K73">
         <v>0.002246277530736174</v>
@@ -6816,25 +6816,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E74">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F74">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>271</v>
@@ -6866,28 +6866,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F75">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K75">
         <v>0.002179209299688675</v>
@@ -6916,28 +6916,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>0.9399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F76">
-        <v>0.06000000000000005</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K76">
         <v>0.002179209299688675</v>
@@ -6966,28 +6966,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="F77">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K77">
         <v>0.002179209299688675</v>
@@ -7016,25 +7016,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>272</v>
@@ -7066,28 +7066,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E79">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F79">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K79">
         <v>0.002110010331398641</v>
@@ -7116,28 +7116,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K80">
         <v>0.002110010331398641</v>
@@ -7166,25 +7166,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>0.9399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F81">
-        <v>0.06000000000000005</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>273</v>
@@ -7216,25 +7216,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="E82">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F82">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>274</v>
@@ -7266,28 +7266,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="F83">
-        <v>0.6699999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K83">
         <v>0.002110010331398641</v>
@@ -7316,25 +7316,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="E84">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F84">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>275</v>
@@ -7366,25 +7366,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="F85">
-        <v>0.14</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>276</v>
@@ -7416,25 +7416,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E86">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>277</v>
@@ -7466,25 +7466,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="F87">
-        <v>0.6699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>278</v>
@@ -7516,28 +7516,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K88">
         <v>0.002038463643376649</v>
@@ -7566,28 +7566,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>0.002038463643376649</v>
@@ -7616,28 +7616,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00409607036907559</v>
+        <v>0.004183379447191543</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K90">
         <v>0.002038463643376649</v>
@@ -7666,13 +7666,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00409607036907559</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>279</v>
@@ -7716,13 +7716,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00409607036907559</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7734,10 +7734,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K92">
         <v>0.002038463643376649</v>
@@ -7766,7 +7766,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>280</v>
@@ -7816,7 +7816,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>281</v>
@@ -7866,7 +7866,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7916,7 +7916,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>283</v>
@@ -7966,7 +7966,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>284</v>
@@ -8016,7 +8016,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K98">
         <v>0.001964312717498872</v>
@@ -8066,7 +8066,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8116,7 +8116,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K100">
         <v>0.001964312717498872</v>
@@ -8166,7 +8166,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>286</v>
@@ -8216,7 +8216,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8234,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K102">
         <v>0.001964312717498872</v>
@@ -8266,25 +8266,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>38</v>
+        <v>841</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>287</v>
@@ -8316,25 +8316,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>288</v>
@@ -8366,25 +8366,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F105">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>841</v>
+        <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>289</v>
@@ -8416,25 +8416,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F106">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>290</v>
@@ -8466,28 +8466,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F107">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K107">
         <v>0.001887250613693688</v>
@@ -8516,25 +8516,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F108">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>291</v>
@@ -8566,25 +8566,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>292</v>
@@ -8616,28 +8616,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K110">
         <v>0.001887250613693688</v>
@@ -8666,28 +8666,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E111">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F111">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K111">
         <v>0.001887250613693688</v>
@@ -8716,28 +8716,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F112">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K112">
         <v>0.001887250613693688</v>
@@ -8766,28 +8766,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K113">
         <v>0.001887250613693688</v>
@@ -8816,28 +8816,28 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K114">
         <v>0.001887250613693688</v>
@@ -8866,25 +8866,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F115">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>293</v>
@@ -8916,28 +8916,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K116">
         <v>0.001806904896680122</v>
@@ -8966,28 +8966,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E117">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F117">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K117">
         <v>0.001806904896680122</v>
@@ -9016,7 +9016,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>294</v>
@@ -9066,25 +9066,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F119">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>295</v>
@@ -9116,25 +9116,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>296</v>
@@ -9166,28 +9166,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E121">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K121">
         <v>0.001806904896680122</v>
@@ -9216,28 +9216,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F122">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K122">
         <v>0.001806904896680122</v>
@@ -9266,25 +9266,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>297</v>
@@ -9316,25 +9316,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E124">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F124">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>298</v>
@@ -9366,25 +9366,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F125">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>299</v>
@@ -9416,25 +9416,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>300</v>
@@ -9466,25 +9466,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F127">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>301</v>
@@ -9516,25 +9516,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F128">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>302</v>
@@ -9566,25 +9566,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>303</v>
@@ -9616,25 +9616,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F130">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>304</v>
@@ -9666,25 +9666,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>305</v>
@@ -9716,25 +9716,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>306</v>
@@ -9766,25 +9766,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>307</v>
@@ -9816,25 +9816,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F134">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>308</v>
@@ -9866,28 +9866,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K135">
         <v>0.001722816221309169</v>
@@ -9916,25 +9916,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>309</v>
@@ -9966,25 +9966,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>310</v>
@@ -10016,25 +10016,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>311</v>
@@ -10066,28 +10066,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K139">
         <v>0.001634406974766506</v>
@@ -10116,25 +10116,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F140">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>312</v>
@@ -10166,25 +10166,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F141">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>313</v>
@@ -10216,25 +10216,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E142">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F142">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>314</v>
@@ -10266,25 +10266,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>5</v>
-      </c>
-      <c r="E143">
-        <v>0.8</v>
-      </c>
-      <c r="F143">
-        <v>0.2</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>22</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>315</v>
@@ -10316,25 +10316,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>316</v>
@@ -10366,25 +10366,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>2998</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>317</v>
@@ -10416,22 +10416,22 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -10466,13 +10466,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E147">
         <v>0.99</v>
@@ -10484,10 +10484,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2998</v>
+        <v>13</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K147">
         <v>0.001634406974766506</v>
@@ -10516,28 +10516,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K148">
         <v>0.001540933673434649</v>
@@ -10566,19 +10566,19 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -10616,13 +10616,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>0.9399999999999999</v>
@@ -10634,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>320</v>
@@ -10666,28 +10666,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K151">
         <v>0.001540933673434649</v>
@@ -10716,28 +10716,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>399</v>
+        <v>54</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K152">
         <v>0.001540933673434649</v>
@@ -10766,25 +10766,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>321</v>
@@ -10816,25 +10816,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>322</v>
@@ -10866,28 +10866,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K155">
         <v>0.001540933673434649</v>
@@ -10916,25 +10916,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>61</v>
+        <v>1138</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>323</v>
@@ -10966,28 +10966,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E157">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F157">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K157">
         <v>0.001540933673434649</v>
@@ -11016,28 +11016,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1138</v>
+        <v>46</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>0.001540933673434649</v>
@@ -11066,25 +11066,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>324</v>
@@ -11116,28 +11116,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K160">
         <v>0.001540933673434649</v>
@@ -11166,25 +11166,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E161">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F161">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>325</v>
@@ -11216,25 +11216,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>326</v>
@@ -11266,25 +11266,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>327</v>
@@ -11316,28 +11316,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E164">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K164">
         <v>0.001540933673434649</v>
@@ -11366,25 +11366,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>328</v>
@@ -11416,25 +11416,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>845</v>
+        <v>6</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>329</v>
@@ -11466,28 +11466,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F167">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K167">
         <v>0.001540933673434649</v>
@@ -11516,25 +11516,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>330</v>
@@ -11566,28 +11566,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E169">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K169">
         <v>0.001540933673434649</v>
@@ -11616,7 +11616,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>331</v>
@@ -11666,28 +11666,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K171">
         <v>0.001540933673434649</v>
@@ -11716,28 +11716,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K172">
         <v>0.001540933673434649</v>
@@ -11766,28 +11766,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K173">
         <v>0.001540933673434649</v>
@@ -11816,25 +11816,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>332</v>
@@ -11866,25 +11866,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E175">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F175">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>333</v>
@@ -11916,25 +11916,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>334</v>
@@ -11966,28 +11966,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K177">
         <v>0.001540933673434649</v>
@@ -12016,25 +12016,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>335</v>
@@ -12066,19 +12066,19 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12116,25 +12116,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>337</v>
@@ -12166,25 +12166,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>338</v>
@@ -12216,28 +12216,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E182">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K182">
         <v>0.001441411465433865</v>
@@ -12266,28 +12266,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K183">
         <v>0.001441411465433865</v>
@@ -12316,25 +12316,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>339</v>
@@ -12366,25 +12366,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>340</v>
@@ -12416,25 +12416,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>0.67</v>
+      </c>
+      <c r="F186">
+        <v>0.33</v>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186">
         <v>5</v>
-      </c>
-      <c r="E186">
-        <v>0.8</v>
-      </c>
-      <c r="F186">
-        <v>0.2</v>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>341</v>
@@ -12466,25 +12466,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E187">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F187">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>549</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>342</v>
@@ -12516,7 +12516,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>343</v>
@@ -12566,25 +12566,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>344</v>
@@ -12616,25 +12616,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>345</v>
@@ -12666,25 +12666,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>861</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>346</v>
@@ -12716,25 +12716,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>347</v>
@@ -12766,25 +12766,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>861</v>
+        <v>6</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>348</v>
@@ -12816,25 +12816,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>349</v>
@@ -12866,7 +12866,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12884,10 +12884,10 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K195">
         <v>0.001441411465433865</v>
@@ -12916,28 +12916,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K196">
         <v>0.001441411465433865</v>
@@ -12966,25 +12966,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>350</v>
@@ -13016,19 +13016,19 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -13066,25 +13066,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>352</v>
@@ -13116,25 +13116,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>353</v>
@@ -13166,25 +13166,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>354</v>
@@ -13213,31 +13213,31 @@
     </row>
     <row r="202" spans="1:17">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B202">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K202">
         <v>0.001441411465433865</v>
@@ -13263,31 +13263,31 @@
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K203">
         <v>0.001441411465433865</v>
@@ -13313,28 +13313,28 @@
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="1" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="B204">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>355</v>
@@ -13366,25 +13366,25 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>356</v>
@@ -13416,25 +13416,25 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>357</v>
@@ -13466,28 +13466,28 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K207">
         <v>0.001441411465433865</v>
@@ -13516,25 +13516,25 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>358</v>
@@ -13566,28 +13566,28 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K209">
         <v>0.001441411465433865</v>
@@ -13616,25 +13616,25 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>359</v>
@@ -13666,25 +13666,25 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>360</v>
@@ -13716,25 +13716,25 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>361</v>
@@ -13766,25 +13766,25 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>362</v>
@@ -13816,25 +13816,25 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>363</v>
@@ -13866,7 +13866,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13884,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>364</v>
@@ -13916,25 +13916,25 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>365</v>
@@ -13966,25 +13966,25 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>366</v>
@@ -14016,25 +14016,25 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>367</v>
@@ -14066,25 +14066,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>368</v>
@@ -14116,25 +14116,25 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>369</v>
@@ -14166,25 +14166,25 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>370</v>
@@ -14216,25 +14216,25 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>371</v>
@@ -14266,25 +14266,25 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>372</v>
@@ -14316,25 +14316,25 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>373</v>
@@ -14366,25 +14366,25 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>374</v>
@@ -14416,25 +14416,25 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E226">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>375</v>
@@ -14466,28 +14466,28 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K227">
         <v>0.00133448770674128</v>
@@ -14516,13 +14516,13 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E228">
         <v>0.93</v>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>376</v>
@@ -14566,25 +14566,25 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>377</v>
@@ -14616,25 +14616,25 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E230">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F230">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>378</v>
@@ -14666,28 +14666,28 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E231">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F231">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K231">
         <v>0.00133448770674128</v>
@@ -14716,22 +14716,22 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>29</v>
@@ -14766,25 +14766,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>380</v>
@@ -14816,7 +14816,7 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>381</v>
@@ -14866,7 +14866,7 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>382</v>
@@ -14916,7 +14916,7 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14934,10 +14934,10 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K236">
         <v>0.00133448770674128</v>
@@ -14966,7 +14966,7 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>383</v>
@@ -15016,25 +15016,25 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>384</v>
@@ -15066,7 +15066,7 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>0.002896359134190634</v>
+        <v>0.00295809597538557</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15084,10 +15084,10 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K239">
         <v>0.00133448770674128</v>
@@ -15112,30 +15112,6 @@
       </c>
     </row>
     <row r="240" spans="1:17">
-      <c r="A240" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B240">
-        <v>0.002896359134190634</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>4</v>
-      </c>
-      <c r="E240">
-        <v>0.75</v>
-      </c>
-      <c r="F240">
-        <v>0.25</v>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240">
-        <v>296</v>
-      </c>
       <c r="J240" s="1" t="s">
         <v>385</v>
       </c>
@@ -15161,31 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241">
-        <v>0.002896359134190634</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>6</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>386</v>
       </c>
@@ -15211,7 +15163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
         <v>387</v>
       </c>
@@ -15237,9 +15189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K243">
         <v>0.00133448770674128</v>
@@ -15263,7 +15215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
         <v>388</v>
       </c>
@@ -15289,9 +15241,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K245">
         <v>0.00133448770674128</v>
@@ -15315,7 +15267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
         <v>389</v>
       </c>
@@ -15341,9 +15293,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K247">
         <v>0.001218215032825897</v>
@@ -15367,7 +15319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>390</v>
       </c>
@@ -15393,9 +15345,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K249">
         <v>0.001218215032825897</v>
@@ -15419,7 +15371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>391</v>
       </c>
@@ -15445,7 +15397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
         <v>392</v>
       </c>
@@ -15471,7 +15423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
         <v>393</v>
       </c>
@@ -15497,7 +15449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
         <v>394</v>
       </c>
@@ -15523,7 +15475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
         <v>395</v>
       </c>
@@ -15549,7 +15501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
         <v>396</v>
       </c>
@@ -15575,7 +15527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
         <v>397</v>
       </c>
@@ -15655,7 +15607,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K259">
         <v>0.001218215032825897</v>
@@ -15759,7 +15711,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K263">
         <v>0.001218215032825897</v>
@@ -15785,7 +15737,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K264">
         <v>0.001218215032825897</v>
@@ -15811,7 +15763,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K265">
         <v>0.001218215032825897</v>
@@ -15837,7 +15789,7 @@
     </row>
     <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K266">
         <v>0.001218215032825897</v>
@@ -15889,7 +15841,7 @@
     </row>
     <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K268">
         <v>0.001218215032825897</v>
@@ -15993,7 +15945,7 @@
     </row>
     <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K272">
         <v>0.001218215032825897</v>
@@ -16019,7 +15971,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K273">
         <v>0.001218215032825897</v>
@@ -16071,7 +16023,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K275">
         <v>0.001218215032825897</v>
@@ -16383,7 +16335,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K287">
         <v>0.001218215032825897</v>
@@ -16513,7 +16465,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K292">
         <v>0.001089604649844337</v>
@@ -16565,7 +16517,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K294">
         <v>0.001089604649844337</v>
@@ -16591,7 +16543,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K295">
         <v>0.001089604649844337</v>
@@ -16617,7 +16569,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K296">
         <v>0.001089604649844337</v>
@@ -16721,7 +16673,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K300">
         <v>0.001089604649844337</v>
@@ -17085,7 +17037,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K314">
         <v>0.001089604649844337</v>
@@ -17683,7 +17635,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K337">
         <v>0.001089604649844337</v>
@@ -17735,7 +17687,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K339">
         <v>0.001089604649844337</v>
@@ -17995,7 +17947,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K349">
         <v>0.001089604649844337</v>
@@ -18099,7 +18051,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K353">
         <v>0.001089604649844337</v>
@@ -18177,7 +18129,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K356">
         <v>0.000943625306846844</v>
@@ -18385,7 +18337,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K364">
         <v>0.000943625306846844</v>
@@ -18411,7 +18363,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K365">
         <v>0.000943625306846844</v>
@@ -18489,7 +18441,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K368">
         <v>0.000943625306846844</v>
@@ -18619,7 +18571,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K373">
         <v>0.000943625306846844</v>
@@ -18749,7 +18701,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K378">
         <v>0.000943625306846844</v>
@@ -18801,7 +18753,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K380">
         <v>0.000943625306846844</v>
@@ -19321,7 +19273,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K400">
         <v>0.000943625306846844</v>
@@ -19373,7 +19325,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K402">
         <v>0.000943625306846844</v>
@@ -20335,7 +20287,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K439">
         <v>0.000943625306846844</v>
@@ -21245,7 +21197,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K474">
         <v>0.0007704668367173246</v>
@@ -21349,7 +21301,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K478">
         <v>0.0007704668367173246</v>
@@ -21375,7 +21327,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K479">
         <v>0.0007704668367173246</v>
@@ -21687,7 +21639,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K491">
         <v>0.0007704668367173246</v>
@@ -22129,7 +22081,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K508">
         <v>0.0007704668367173246</v>
@@ -22441,7 +22393,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K520">
         <v>0.0007704668367173246</v>
@@ -22545,7 +22497,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K524">
         <v>0.0007704668367173246</v>
@@ -22597,7 +22549,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K526">
         <v>0.0007704668367173246</v>
@@ -23039,7 +22991,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K543">
         <v>0.0007704668367173246</v>
@@ -23611,7 +23563,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K565">
         <v>0.0007704668367173246</v>
@@ -23715,7 +23667,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K569">
         <v>0.0007704668367173246</v>
@@ -23975,7 +23927,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K579">
         <v>0.0007704668367173246</v>
@@ -24079,7 +24031,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K583">
         <v>0.0007704668367173246</v>
@@ -24235,7 +24187,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K589">
         <v>0.0007704668367173246</v>
@@ -24339,7 +24291,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K593">
         <v>0.0007704668367173246</v>
@@ -25067,7 +25019,7 @@
     </row>
     <row r="621" spans="10:17">
       <c r="J621" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K621">
         <v>0.0005448023249221686</v>
@@ -25119,7 +25071,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K623">
         <v>0.0005448023249221686</v>
@@ -25847,7 +25799,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K651">
         <v>0.0005448023249221686</v>
@@ -26523,7 +26475,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K677">
         <v>0.0005448023249221686</v>
@@ -29981,7 +29933,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K810">
         <v>0.0005448023249221686</v>
@@ -30215,7 +30167,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K819">
         <v>0.0005448023249221686</v>
@@ -30241,7 +30193,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K820">
         <v>0.0005448023249221686</v>
@@ -30631,7 +30583,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K835">
         <v>0.0005448023249221686</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K840">
         <v>0.0005448023249221686</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K844">
         <v>0.0005448023249221686</v>
@@ -30995,7 +30947,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K849">
         <v>0.0005448023249221686</v>
